--- a/OpenFFBoard-main/Assembly_JLC/CPL_JLCSMT.xlsx
+++ b/OpenFFBoard-main/Assembly_JLC/CPL_JLCSMT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t xml:space="preserve">Designator</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t xml:space="preserve">X1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C15</t>
   </si>
 </sst>
 </file>
@@ -303,17 +306,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E44" activeCellId="0" sqref="E44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="8.88"/>
@@ -1082,6 +1085,23 @@
       </c>
       <c r="E45" s="0" t="n">
         <v>90</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>48.9</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>-55</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
